--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3877042.119221209</v>
+        <v>3872783.853567974</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7489206.357945872</v>
+        <v>7489206.357945873</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>114.8893678774706</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.3310866359321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>1.36059768091647</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.7466796050973</v>
@@ -718,16 +718,16 @@
         <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>99.43252181380355</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.0283793981797</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370735</v>
+        <v>44.34001494201961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>216.7979561955809</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>144.9872707730597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>47.40518852803264</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>133.7705340727091</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>128.5019307192077</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>47.67896629050069</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>237.2636163285221</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>204.3337857678665</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>49.94675160484181</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>189.6159040137779</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.82913822149973</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>35.88641949135634</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>99.17988875728673</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>126.4643665640119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.0280580960834</v>
       </c>
       <c r="E19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>105.0006820737984</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>108.3106907504111</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.42659968729146</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.0479268348176</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>45.17596778974989</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>26.07046444232026</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>31.39650288673297</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3556,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>34.67929910923817</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>7.61374123523283</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>135.3286065175531</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>951.0716459530283</v>
+        <v>1678.045815583999</v>
       </c>
       <c r="C2" t="n">
-        <v>835.0217794101287</v>
+        <v>1678.045815583999</v>
       </c>
       <c r="D2" t="n">
-        <v>476.7560808033782</v>
+        <v>1319.780116977249</v>
       </c>
       <c r="E2" t="n">
-        <v>476.7560808033782</v>
+        <v>1319.780116977249</v>
       </c>
       <c r="F2" t="n">
-        <v>469.8105800541747</v>
+        <v>908.7942121876411</v>
       </c>
       <c r="G2" t="n">
-        <v>52.70091953961285</v>
+        <v>491.6845516730792</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961285</v>
+        <v>173.237370687019</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
@@ -4333,19 +4333,19 @@
         <v>239.5208398512382</v>
       </c>
       <c r="K2" t="n">
-        <v>640.2602765776281</v>
+        <v>319.356318132175</v>
       </c>
       <c r="L2" t="n">
-        <v>776.2050087789647</v>
+        <v>868.7856527384575</v>
       </c>
       <c r="M2" t="n">
-        <v>959.1391545426832</v>
+        <v>1494.497380751052</v>
       </c>
       <c r="N2" t="n">
-        <v>1582.620629583317</v>
+        <v>2117.978855791686</v>
       </c>
       <c r="O2" t="n">
-        <v>2126.168868780412</v>
+        <v>2284.534915538663</v>
       </c>
       <c r="P2" t="n">
         <v>2392.185658263122</v>
@@ -4357,25 +4357,25 @@
         <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.958036347466</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="T2" t="n">
-        <v>2262.062400382721</v>
+        <v>2418.775999924063</v>
       </c>
       <c r="U2" t="n">
-        <v>2008.368946827793</v>
+        <v>2165.082546369134</v>
       </c>
       <c r="V2" t="n">
-        <v>1677.306059484222</v>
+        <v>2165.082546369134</v>
       </c>
       <c r="W2" t="n">
-        <v>1324.537404214108</v>
+        <v>2165.082546369134</v>
       </c>
       <c r="X2" t="n">
-        <v>951.0716459530283</v>
+        <v>2165.082546369134</v>
       </c>
       <c r="Y2" t="n">
-        <v>951.0716459530283</v>
+        <v>2064.645655648121</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935055</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123786</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511273</v>
+        <v>641.7429649564932</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456718</v>
+        <v>482.5055099510377</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725568</v>
+        <v>335.9709519779227</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679829</v>
+        <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507483</v>
+        <v>97.48881342044075</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,22 +4412,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524141</v>
+        <v>118.4560672099614</v>
       </c>
       <c r="L3" t="n">
-        <v>882.1470455900082</v>
+        <v>620.3264609475555</v>
       </c>
       <c r="M3" t="n">
-        <v>1175.063754712942</v>
+        <v>1257.964760382444</v>
       </c>
       <c r="N3" t="n">
-        <v>1827.237634015651</v>
+        <v>1910.138639685153</v>
       </c>
       <c r="O3" t="n">
-        <v>1984.020177892692</v>
+        <v>2456.844879646157</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257506</v>
+        <v>2613.773581115997</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.0428185061398</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C4" t="n">
-        <v>207.0428185061398</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D4" t="n">
-        <v>207.0428185061398</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>207.0428185061398</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>207.0428185061398</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>207.0428185061398</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
         <v>52.70091953961285</v>
@@ -4515,25 +4515,25 @@
         <v>1043.779963221469</v>
       </c>
       <c r="S4" t="n">
-        <v>836.1686462697003</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="T4" t="n">
-        <v>836.1686462697003</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="U4" t="n">
-        <v>836.1686462697003</v>
+        <v>824.7921286804777</v>
       </c>
       <c r="V4" t="n">
-        <v>581.4841580638134</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="W4" t="n">
-        <v>581.4841580638134</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X4" t="n">
-        <v>353.4946071657961</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y4" t="n">
-        <v>207.0428185061398</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1203.962417599551</v>
+        <v>982.2154252505222</v>
       </c>
       <c r="C5" t="n">
-        <v>834.9999006591394</v>
+        <v>982.2154252505222</v>
       </c>
       <c r="D5" t="n">
-        <v>476.7342020523889</v>
+        <v>982.2154252505222</v>
       </c>
       <c r="E5" t="n">
-        <v>476.7342020523889</v>
+        <v>596.427172652278</v>
       </c>
       <c r="F5" t="n">
-        <v>469.7887013031854</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G5" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L5" t="n">
-        <v>784.1365874146478</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M5" t="n">
-        <v>1415.85439839796</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N5" t="n">
-        <v>1942.166326942443</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O5" t="n">
         <v>2489.327531709521</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.354273725794</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V5" t="n">
-        <v>2333.470244909599</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W5" t="n">
-        <v>1980.701589639485</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="X5" t="n">
-        <v>1980.701589639485</v>
+        <v>1758.954597290456</v>
       </c>
       <c r="Y5" t="n">
-        <v>1590.562257663673</v>
+        <v>1368.815265314644</v>
       </c>
     </row>
     <row r="6">
@@ -4652,10 +4652,10 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>1005.150115568437</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M6" t="n">
-        <v>1184.647451923042</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N6" t="n">
         <v>1430.928743686615</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>330.4139431414077</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="C7" t="n">
-        <v>330.4139431414077</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D7" t="n">
-        <v>330.4139431414077</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E7" t="n">
-        <v>182.5008495590146</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F7" t="n">
         <v>52.70091953961285</v>
@@ -4749,28 +4749,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S7" t="n">
-        <v>845.195316251363</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T7" t="n">
-        <v>619.566119563728</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="U7" t="n">
-        <v>330.4139431414077</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="V7" t="n">
-        <v>330.4139431414077</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="W7" t="n">
-        <v>330.4139431414077</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="X7" t="n">
-        <v>330.4139431414077</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="Y7" t="n">
-        <v>330.4139431414077</v>
+        <v>666.5567829601589</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1220.788153257384</v>
+        <v>801.0095040659444</v>
       </c>
       <c r="C8" t="n">
-        <v>1220.788153257384</v>
+        <v>432.0469871255327</v>
       </c>
       <c r="D8" t="n">
-        <v>862.5224546506331</v>
+        <v>192.386768611874</v>
       </c>
       <c r="E8" t="n">
-        <v>476.7342020523889</v>
+        <v>192.386768611874</v>
       </c>
       <c r="F8" t="n">
-        <v>65.74829726278134</v>
+        <v>185.4412678626705</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4810,16 +4810,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1415.85439839796</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>2043.162066457806</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
-        <v>2213.331091774766</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
         <v>2389.870016205742</v>
@@ -4834,22 +4834,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U8" t="n">
-        <v>2166.554411993505</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V8" t="n">
-        <v>2166.554411993505</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W8" t="n">
-        <v>1813.785756723391</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X8" t="n">
-        <v>1607.387993321505</v>
+        <v>1577.748676105878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1607.387993321505</v>
+        <v>1187.609344130066</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>886.4908637115414</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1065.988200066146</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N9" t="n">
-        <v>1718.162079368855</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
         <v>1980.364752439338</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>472.01563524559</v>
+        <v>422.2050061271705</v>
       </c>
       <c r="C10" t="n">
-        <v>472.01563524559</v>
+        <v>253.2688231992636</v>
       </c>
       <c r="D10" t="n">
-        <v>472.01563524559</v>
+        <v>103.1521837869278</v>
       </c>
       <c r="E10" t="n">
-        <v>324.1025416631969</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
         <v>52.70091953961285</v>
@@ -4989,25 +4989,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>653.6641000758298</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X10" t="n">
-        <v>653.6641000758298</v>
+        <v>824.6460501009403</v>
       </c>
       <c r="Y10" t="n">
-        <v>653.6641000758298</v>
+        <v>603.8534709574102</v>
       </c>
     </row>
     <row r="11">
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.07903472198</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>2253.988764961267</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.1291986799072</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675715</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851784</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168619</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273908</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239597</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1026.887310050512</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.485273605118</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2206.395003844405</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206044</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926976</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803618</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979687</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508442</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,25 +5503,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P18" t="n">
-        <v>2515.675093211831</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5749,10 +5749,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5779,10 +5779,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2091.001250463528</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1801.926023807726</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1547.241535601839</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1257.824365564879</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1029.834814666861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>809.0422355233313</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.955258982919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>889.0190760550122</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6256,7 +6256,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6305,28 +6305,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6429,7 +6429,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.867919098985</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.792692443183</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7016,22 +7016,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2149.810879820877</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3173.601046153952</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2420.62928111327</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2237.774446768175</v>
       </c>
       <c r="T37" t="n">
-        <v>4409.218975026371</v>
+        <v>2018.172981791116</v>
       </c>
       <c r="U37" t="n">
-        <v>4120.143748370569</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V37" t="n">
-        <v>3865.459260164682</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W37" t="n">
-        <v>3576.042090127722</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>3576.042090127722</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>3355.249510984192</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7195,19 +7195,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7438,10 +7438,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7499,19 +7499,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>415.5933575433587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>268.7034100454483</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>101.5073107603283</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,16 +7636,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7663,37 +7663,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3023.484406741618</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3023.484406741618</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741618</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159225</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661314</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4487.091886512055</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4487.091886512055</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4198.016659856253</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3943.332171650366</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3653.915001613405</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3425.925450715388</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3205.132871571858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>447.2500830796725</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>159.9657037962129</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>7.3281211888728</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>117.5014371722675</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>461.1122511579958</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>50.939347533903</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>335.3310259116176</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>418.9459514760943</v>
       </c>
       <c r="N6" t="n">
-        <v>48.10560617263525</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8458,19 +8458,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>66.46929210247404</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>458.0981188384286</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O9" t="n">
-        <v>103.7276367694164</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.0028419604376</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>145.1398665102882</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>66.34424953498211</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>92.12028678808289</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221289997</v>
       </c>
       <c r="E19" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>112.4047682534898</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.30478226780122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.8202214113364</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3575234924706763</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>172.2294825375384</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>40.30478226780143</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>186.0089474405553</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>251.505175280006</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>132.6809716109911</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>45.69767948409154</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>631638.0544098781</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>631638.054409878</v>
+        <v>631638.0544098781</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>631638.0544098781</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="15">
@@ -26322,40 +26322,40 @@
         <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977563</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977563</v>
+        <v>786967.934697756</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.934697756</v>
       </c>
       <c r="H2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="P2" t="n">
         <v>786967.9346977558</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977562</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977561</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.934697756</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>787455.5478918878</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008499763</v>
+        <v>4906.24700849981</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765847</v>
+        <v>775688.3472765846</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157139</v>
+        <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707406</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707357</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707377</v>
+        <v>6897.424496707423</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707405</v>
+        <v>6897.424496707401</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707408</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26530,40 +26530,40 @@
         <v>524005.835358582</v>
       </c>
       <c r="E6" t="n">
-        <v>-96740.36689944295</v>
+        <v>-97087.74615380004</v>
       </c>
       <c r="F6" t="n">
-        <v>678947.9803771419</v>
+        <v>678600.6011227848</v>
       </c>
       <c r="G6" t="n">
-        <v>678947.9803771417</v>
+        <v>678600.6011227845</v>
       </c>
       <c r="H6" t="n">
-        <v>678947.9803771413</v>
+        <v>678600.6011227843</v>
       </c>
       <c r="I6" t="n">
-        <v>678947.9803771417</v>
+        <v>678600.6011227843</v>
       </c>
       <c r="J6" t="n">
-        <v>506586.9879768607</v>
+        <v>506239.6087225035</v>
       </c>
       <c r="K6" t="n">
-        <v>678947.9803771409</v>
+        <v>678600.6011227845</v>
       </c>
       <c r="L6" t="n">
-        <v>678947.9803771414</v>
+        <v>678600.6011227848</v>
       </c>
       <c r="M6" t="n">
-        <v>550870.3835614274</v>
+        <v>550523.0043070707</v>
       </c>
       <c r="N6" t="n">
-        <v>678947.9803771416</v>
+        <v>678600.6011227843</v>
       </c>
       <c r="O6" t="n">
-        <v>678947.9803771415</v>
+        <v>678600.6011227843</v>
       </c>
       <c r="P6" t="n">
-        <v>678947.9803771413</v>
+        <v>678600.6011227844</v>
       </c>
     </row>
   </sheetData>
@@ -26712,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.144835422507597e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26798,10 +26798,10 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26919,13 +26919,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
-        <v>5.38791591551497</v>
+        <v>5.387915915515022</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544882</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544882</v>
+        <v>513.946793854488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544882</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>250.3835238935369</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>286.8054168422501</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.504804251687688</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.504804251687737</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
         <v>123.5587419097207</v>
@@ -27587,25 +27587,25 @@
         <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
         <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>69.46322842145861</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.59738257903507</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>280.3470699421023</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>235.9605666057599</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>16.91911730372351</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>175.693938430258</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>117.4194252921609</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>165.3973149106025</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>96.48721104172736</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28031,7 +28031,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28061,7 +28061,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>96.90709432281309</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28335,16 +28335,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.59128608628582e-15</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P12" t="n">
-        <v>163.4402738502014</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>211.5147800288493</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32332,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>177.7456072667729</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>369.1789913099997</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,31 +33025,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>510.8679233250724</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33736,7 +33736,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>541.2980521010961</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,7 +33982,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34701,22 +34701,22 @@
         <v>188.706990213763</v>
       </c>
       <c r="K2" t="n">
-        <v>404.7873098246363</v>
+        <v>80.64189725347154</v>
       </c>
       <c r="L2" t="n">
-        <v>137.3179113144814</v>
+        <v>554.9791258649318</v>
       </c>
       <c r="M2" t="n">
-        <v>184.7819654178975</v>
+        <v>632.03204849757</v>
       </c>
       <c r="N2" t="n">
         <v>629.779267717812</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516111</v>
+        <v>168.2384441888658</v>
       </c>
       <c r="P2" t="n">
-        <v>268.7038277603131</v>
+        <v>108.7381239641002</v>
       </c>
       <c r="Q2" t="n">
         <v>245.3134532500206</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937387</v>
+        <v>66.41934108116013</v>
       </c>
       <c r="L3" t="n">
         <v>506.9397916541354</v>
       </c>
       <c r="M3" t="n">
-        <v>295.8754637605389</v>
+        <v>644.0790903382713</v>
       </c>
       <c r="N3" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3662059364053</v>
+        <v>552.2285252131348</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745597</v>
+        <v>158.5138398685255</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859964</v>
+        <v>21.48726855014735</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>531.6282106509938</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P5" t="n">
         <v>111.8528537874005</v>
@@ -35020,13 +35020,13 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>600.2563922383214</v>
       </c>
       <c r="N6" t="n">
-        <v>248.7689815793672</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
@@ -35178,19 +35178,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>178.3221458898746</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35263,10 +35263,10 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451606</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O9" t="n">
-        <v>264.8511849196797</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193538</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P12" t="n">
-        <v>29.46586643587111</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790297</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>77.5403726145191</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35980,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.7638331807514</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>226.5827468655553</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>556.7168329578467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>379.5262112417391</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37384,7 +37384,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>407.3236446867659</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,7 +37630,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683835</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3872783.853567974</v>
+        <v>3874544.383870759</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7489206.357945873</v>
+        <v>7489206.357945872</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>119.3310866359322</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36059768091647</v>
+        <v>1.360597680916612</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>99.43252181380265</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.43252181380355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>44.34001494201961</v>
+        <v>44.3400149420196</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353349</v>
+        <v>21.62032152353356</v>
       </c>
       <c r="S3" t="n">
         <v>148.187383735635</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>216.7979561955809</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>216.7979561955802</v>
       </c>
     </row>
     <row r="5">
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>49.94675160484181</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>184.6902077947045</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710088</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>80.08971311158757</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>99.17988875728673</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722628</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.0280580960834</v>
+        <v>148.0280580960838</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>26.07046444232026</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>27.02919805176109</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>94.64226186542935</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4318,61 +4318,61 @@
         <v>1319.780116977249</v>
       </c>
       <c r="F2" t="n">
-        <v>908.7942121876411</v>
+        <v>908.7942121876412</v>
       </c>
       <c r="G2" t="n">
-        <v>491.6845516730792</v>
+        <v>491.6845516730793</v>
       </c>
       <c r="H2" t="n">
-        <v>173.237370687019</v>
+        <v>173.2373706870191</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>239.5208398512382</v>
+        <v>239.5208398512381</v>
       </c>
       <c r="K2" t="n">
-        <v>319.356318132175</v>
+        <v>319.3563181321746</v>
       </c>
       <c r="L2" t="n">
-        <v>868.7856527384575</v>
+        <v>868.7856527384569</v>
       </c>
       <c r="M2" t="n">
-        <v>1494.497380751052</v>
+        <v>1494.497380751054</v>
       </c>
       <c r="N2" t="n">
-        <v>2117.978855791686</v>
+        <v>2117.978855791687</v>
       </c>
       <c r="O2" t="n">
-        <v>2284.534915538663</v>
+        <v>2284.534915538664</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.185658263122</v>
+        <v>2392.185658263123</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888808</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="S2" t="n">
-        <v>2633.671635888808</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="T2" t="n">
-        <v>2418.775999924063</v>
+        <v>2418.775999924062</v>
       </c>
       <c r="U2" t="n">
         <v>2165.082546369134</v>
       </c>
       <c r="V2" t="n">
-        <v>2165.082546369134</v>
+        <v>2064.645655648121</v>
       </c>
       <c r="W2" t="n">
-        <v>2165.082546369134</v>
+        <v>2064.645655648121</v>
       </c>
       <c r="X2" t="n">
-        <v>2165.082546369134</v>
+        <v>2064.645655648121</v>
       </c>
       <c r="Y2" t="n">
         <v>2064.645655648121</v>
@@ -4403,7 +4403,7 @@
         <v>198.5178481733488</v>
       </c>
       <c r="H3" t="n">
-        <v>97.48881342044075</v>
+        <v>97.48881342044074</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,19 +4412,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>118.4560672099614</v>
+        <v>380.276651852414</v>
       </c>
       <c r="L3" t="n">
-        <v>620.3264609475555</v>
+        <v>882.1470455900078</v>
       </c>
       <c r="M3" t="n">
-        <v>1257.964760382444</v>
+        <v>1519.785345024896</v>
       </c>
       <c r="N3" t="n">
-        <v>1910.138639685153</v>
+        <v>1715.458095681189</v>
       </c>
       <c r="O3" t="n">
-        <v>2456.844879646157</v>
+        <v>2262.164335642192</v>
       </c>
       <c r="P3" t="n">
         <v>2613.773581115997</v>
@@ -4491,46 +4491,46 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131525</v>
+        <v>152.6313247131524</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039134</v>
+        <v>336.0342731039131</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856117</v>
+        <v>539.7960902856113</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066373</v>
+        <v>744.1475233066367</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249429</v>
+        <v>916.8828514249423</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351319</v>
+        <v>1041.167083351318</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.779963221469</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="U4" t="n">
-        <v>824.7921286804777</v>
+        <v>1043.779963221468</v>
       </c>
       <c r="V4" t="n">
-        <v>570.1076404745909</v>
+        <v>789.095475015581</v>
       </c>
       <c r="W4" t="n">
-        <v>280.6904704376302</v>
+        <v>499.6783049786204</v>
       </c>
       <c r="X4" t="n">
-        <v>52.70091953961285</v>
+        <v>271.688754080603</v>
       </c>
       <c r="Y4" t="n">
         <v>52.70091953961285</v>
@@ -4649,19 +4649,19 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>500.7885757023184</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L6" t="n">
-        <v>638.0181737180123</v>
+        <v>453.4876558703395</v>
       </c>
       <c r="M6" t="n">
-        <v>1232.27200203395</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686615</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P6" t="n">
         <v>2404.332520920175</v>
@@ -4807,22 +4807,22 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>644.8079315733946</v>
+        <v>507.319769103204</v>
       </c>
       <c r="L8" t="n">
-        <v>1032.36013938198</v>
+        <v>1060.133027349403</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.059552207387</v>
+        <v>1691.850838332715</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.39376509937</v>
+        <v>2319.158506392561</v>
       </c>
       <c r="O8" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P8" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4892,10 +4892,10 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.647451923042</v>
+        <v>1622.195698117913</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.928743686615</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O9" t="n">
         <v>1980.364752439338</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>422.2050061271705</v>
+        <v>684.4313707195215</v>
       </c>
       <c r="C10" t="n">
-        <v>253.2688231992636</v>
+        <v>515.4951877916146</v>
       </c>
       <c r="D10" t="n">
-        <v>103.1521837869278</v>
+        <v>365.3785483792789</v>
       </c>
       <c r="E10" t="n">
-        <v>52.70091953961285</v>
+        <v>217.4654547968858</v>
       </c>
       <c r="F10" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="G10" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="H10" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -5004,10 +5004,10 @@
         <v>1052.635600998958</v>
       </c>
       <c r="X10" t="n">
-        <v>824.6460501009403</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="Y10" t="n">
-        <v>603.8534709574102</v>
+        <v>866.0798355497612</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,16 +5029,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111716</v>
@@ -5132,7 +5132,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5311,16 +5311,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5375,7 +5375,7 @@
         <v>1963.765362972544</v>
       </c>
       <c r="P15" t="n">
-        <v>2387.388512467612</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556945</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D16" t="n">
-        <v>565.7099969556945</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>417.7969033733013</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>417.7969033733013</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,19 +5588,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M18" t="n">
         <v>842.6091804069456</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D19" t="n">
         <v>484.8112968429802</v>
@@ -5667,58 +5667,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X19" t="n">
         <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,40 +5980,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,37 +6220,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6481,34 +6481,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2149.810879820877</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,28 +6712,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616863</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2420.62928111327</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2237.774446768175</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2018.172981791116</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,16 +7192,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>447.2500830796725</v>
+        <v>447.2500830796755</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.3281211888728</v>
+        <v>7.328121188872913</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>461.1122511579958</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>50.939347533903</v>
+        <v>247.5863616793218</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>78.07077454018182</v>
       </c>
       <c r="M6" t="n">
-        <v>418.9459514760943</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8455,25 +8455,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>185.2684807830933</v>
       </c>
       <c r="L8" t="n">
-        <v>250.7308605730627</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>441.9679254493647</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263525</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-1.180355275876318e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>68.52575990662478</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>66.34424953498211</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5874149221289997</v>
+        <v>0.5874149221285734</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>40.30478226780143</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>118.3918499711702</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>696357.2071959208</v>
+        <v>696357.2071959209</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631638.054409878</v>
+        <v>631638.0544098779</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>631638.054409878</v>
+        <v>631638.0544098781</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>631638.0544098781</v>
+        <v>631638.054409878</v>
       </c>
     </row>
     <row r="14">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="G2" t="n">
         <v>786967.934697756</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977557</v>
@@ -26343,19 +26343,19 @@
         <v>786967.934697756</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="M2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="N2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="O2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918878</v>
+        <v>787455.5478918871</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.24700849981</v>
+        <v>4906.247008500267</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909052</v>
+        <v>190891.9800909053</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,40 +26426,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707305</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707331</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6897.424496707314</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707319</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707319</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707279</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707352</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707275</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707319</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.424496707423</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707425</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707401</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051735</v>
+        <v>86500.62127051734</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-264332.4236356342</v>
+        <v>-264332.4236356334</v>
       </c>
       <c r="C6" t="n">
-        <v>519099.5883500822</v>
+        <v>519099.5883500817</v>
       </c>
       <c r="D6" t="n">
-        <v>524005.835358582</v>
+        <v>524005.8353585821</v>
       </c>
       <c r="E6" t="n">
-        <v>-97087.74615380004</v>
+        <v>-96775.10482487921</v>
       </c>
       <c r="F6" t="n">
-        <v>678600.6011227848</v>
+        <v>678913.2424517062</v>
       </c>
       <c r="G6" t="n">
-        <v>678600.6011227845</v>
+        <v>678913.242451706</v>
       </c>
       <c r="H6" t="n">
-        <v>678600.6011227843</v>
+        <v>678913.2424517057</v>
       </c>
       <c r="I6" t="n">
-        <v>678600.6011227843</v>
+        <v>678913.2424517055</v>
       </c>
       <c r="J6" t="n">
-        <v>506239.6087225035</v>
+        <v>506552.2500514248</v>
       </c>
       <c r="K6" t="n">
-        <v>678600.6011227845</v>
+        <v>678913.242451706</v>
       </c>
       <c r="L6" t="n">
-        <v>678600.6011227848</v>
+        <v>678913.2424517055</v>
       </c>
       <c r="M6" t="n">
-        <v>550523.0043070707</v>
+        <v>550835.6456359921</v>
       </c>
       <c r="N6" t="n">
-        <v>678600.6011227843</v>
+        <v>678913.242451706</v>
       </c>
       <c r="O6" t="n">
-        <v>678600.6011227843</v>
+        <v>678913.2424517057</v>
       </c>
       <c r="P6" t="n">
-        <v>678600.6011227844</v>
+        <v>678913.242451706</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225495</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26804,28 +26804,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-4.42581568262384e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225495</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515022</v>
+        <v>5.387915915515523</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>155.1464635459284</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>228.3197366563323</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>286.8054168422501</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.504804251687737</v>
+        <v>1.504804251687794</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775194</v>
+        <v>18.38275699775201</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>129.6100444894002</v>
       </c>
       <c r="S4" t="n">
         <v>205.5352037822505</v>
@@ -27593,7 +27593,7 @@
         <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>69.46322842145861</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>1.786697156514549</v>
       </c>
     </row>
     <row r="5">
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>96.48721104172736</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28034,7 +28034,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>33.89444555739033</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.238338779942188e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28569,10 +28569,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.017047995810996e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29511,13 +29511,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-1.54335762560769e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29799,13 +29799,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29997,10 +29997,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-6.742016973470393e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.818989403545856e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-9.094947017729281e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718793</v>
+        <v>2.36417360571879</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956759</v>
+        <v>24.21209293956757</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447383</v>
+        <v>91.14480293447374</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683755</v>
+        <v>200.6562795683753</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984521</v>
+        <v>300.7317482984518</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844687</v>
+        <v>373.0843262844683</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451702</v>
+        <v>415.1281986451698</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024187</v>
+        <v>421.8454069024183</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105525</v>
+        <v>398.3366556105521</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193698</v>
+        <v>339.9711197193694</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645654</v>
+        <v>255.3041524645652</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602332</v>
+        <v>148.5085202602331</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031704</v>
+        <v>53.87360604031699</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903402</v>
+        <v>10.34916995903401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575034</v>
+        <v>0.1891338884575032</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682466</v>
+        <v>1.264944396682465</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2166998311175</v>
+        <v>12.21669983111749</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770773</v>
+        <v>43.55181365770768</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777939</v>
+        <v>119.5095054777938</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555191</v>
+        <v>204.2607800555189</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305504</v>
+        <v>274.6538261305502</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102897</v>
+        <v>320.5080605102895</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704981</v>
+        <v>328.9909551704978</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808498</v>
+        <v>300.9624503808495</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489527</v>
+        <v>241.5488997489525</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361689</v>
+        <v>161.4690426361687</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910964</v>
+        <v>78.53751262910957</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820281</v>
+        <v>23.49578736820279</v>
       </c>
       <c r="T3" t="n">
-        <v>5.09861359890871</v>
+        <v>5.098613598908705</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753071</v>
+        <v>0.08322002609753062</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942303</v>
+        <v>1.060486889942302</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577939</v>
+        <v>9.42869253057793</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753764</v>
+        <v>31.89173301753761</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892083</v>
+        <v>74.97642311892076</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314785</v>
+        <v>123.2092950314784</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646948</v>
+        <v>157.6654781646947</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934103</v>
+        <v>166.2361403934101</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308982</v>
+        <v>162.2834165308981</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983903</v>
+        <v>149.8950014983902</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435672</v>
+        <v>128.2610689435671</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780506</v>
+        <v>88.80131584780497</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776937</v>
+        <v>47.68334688776932</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472177</v>
+        <v>18.48139425472175</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026203</v>
+        <v>4.531171257026199</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139842</v>
+        <v>0.05784473945139837</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32083,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>307.3280120589134</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32323,16 +32323,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>211.3773391483997</v>
@@ -32341,13 +32341,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>488.722343634793</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>549.9198891312103</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.706990213763</v>
+        <v>188.7069902137628</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347154</v>
+        <v>80.64189725347126</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649318</v>
+        <v>554.9791258649316</v>
       </c>
       <c r="M2" t="n">
-        <v>632.03204849757</v>
+        <v>632.0320484975725</v>
       </c>
       <c r="N2" t="n">
-        <v>629.779267717812</v>
+        <v>629.7792677178115</v>
       </c>
       <c r="O2" t="n">
-        <v>168.2384441888658</v>
+        <v>168.2384441888654</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641002</v>
+        <v>108.7381239640999</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.3134532500206</v>
+        <v>245.3134532500204</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>66.41934108116013</v>
+        <v>330.8845780937385</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541354</v>
+        <v>506.9397916541351</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382713</v>
+        <v>644.079090338271</v>
       </c>
       <c r="N3" t="n">
-        <v>658.7614942451606</v>
+        <v>197.6492430871645</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131348</v>
+        <v>552.2285252131346</v>
       </c>
       <c r="P3" t="n">
-        <v>158.5138398685255</v>
+        <v>355.160854013944</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014735</v>
+        <v>21.48726855014718</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055956</v>
+        <v>100.9398032055955</v>
       </c>
       <c r="L4" t="n">
-        <v>185.255503425011</v>
+        <v>185.2555034250108</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552509</v>
+        <v>205.8200173552507</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101268</v>
+        <v>206.4155889101266</v>
       </c>
       <c r="O4" t="n">
-        <v>174.48012941243</v>
+        <v>174.4801294124299</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084607</v>
+        <v>125.5396282084606</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110672</v>
+        <v>2.639272596110587</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>216.6865301115899</v>
       </c>
       <c r="M6" t="n">
-        <v>600.2563922383214</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35175,25 +35175,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>268.6656066160149</v>
       </c>
       <c r="L8" t="n">
-        <v>391.4668765743286</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>623.2783662115918</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793672</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35500,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>197.8432633066783</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.3462379728918</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>71.39556506237817</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>350.1679638549189</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>407.3236446867659</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
